--- a/ECB_skewness_lt.xlsx
+++ b/ECB_skewness_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -133,13 +133,13 @@
         <v>0.88727086782455444</v>
       </c>
       <c r="C5" s="2">
-        <v>0.77806425094604492</v>
+        <v>0.77966213226318359</v>
       </c>
       <c r="D5" s="2">
         <v>0.75177186727523804</v>
       </c>
       <c r="E5" s="2">
-        <v>0.63482666015625</v>
+        <v>0.63628363609313965</v>
       </c>
     </row>
     <row r="6">
@@ -150,13 +150,13 @@
         <v>0.48910319805145264</v>
       </c>
       <c r="C6" s="2">
-        <v>0.36333349347114563</v>
+        <v>0.36411759257316589</v>
       </c>
       <c r="D6" s="2">
         <v>0.7444491982460022</v>
       </c>
       <c r="E6" s="2">
-        <v>0.63678073883056641</v>
+        <v>0.63836473226547241</v>
       </c>
     </row>
     <row r="7">
@@ -167,13 +167,13 @@
         <v>0.66977864503860474</v>
       </c>
       <c r="C7" s="2">
-        <v>0.57321524620056152</v>
+        <v>0.57365500926971436</v>
       </c>
       <c r="D7" s="2">
         <v>0.76829540729522705</v>
       </c>
       <c r="E7" s="2">
-        <v>0.66878914833068848</v>
+        <v>0.67071652412414551</v>
       </c>
     </row>
     <row r="8">
@@ -184,13 +184,13 @@
         <v>0.67671900987625122</v>
       </c>
       <c r="C8" s="2">
-        <v>0.52347332239151001</v>
+        <v>0.52554982900619507</v>
       </c>
       <c r="D8" s="2">
         <v>0.8611454963684082</v>
       </c>
       <c r="E8" s="2">
-        <v>0.76400214433670044</v>
+        <v>0.76616185903549194</v>
       </c>
     </row>
     <row r="9">
@@ -201,13 +201,13 @@
         <v>1.0359877347946167</v>
       </c>
       <c r="C9" s="2">
-        <v>0.93604713678359985</v>
+        <v>0.93843358755111694</v>
       </c>
       <c r="D9" s="2">
         <v>0.86181104183197021</v>
       </c>
       <c r="E9" s="2">
-        <v>0.76412093639373779</v>
+        <v>0.76644355058670044</v>
       </c>
     </row>
     <row r="10">
@@ -218,13 +218,13 @@
         <v>0.70783579349517822</v>
       </c>
       <c r="C10" s="2">
-        <v>0.64655107259750366</v>
+        <v>0.64877015352249146</v>
       </c>
       <c r="D10" s="2">
         <v>0.78314322233200073</v>
       </c>
       <c r="E10" s="2">
-        <v>0.68103659152984619</v>
+        <v>0.68360763788223267</v>
       </c>
     </row>
     <row r="11">
@@ -235,13 +235,13 @@
         <v>0.91137278079986572</v>
       </c>
       <c r="C11" s="2">
-        <v>0.86083930730819702</v>
+        <v>0.86482733488082886</v>
       </c>
       <c r="D11" s="2">
         <v>0.79346698522567749</v>
       </c>
       <c r="E11" s="2">
-        <v>0.69854187965393066</v>
+        <v>0.7011680006980896</v>
       </c>
     </row>
     <row r="12">
@@ -252,13 +252,13 @@
         <v>1.5110960006713867</v>
       </c>
       <c r="C12" s="2">
-        <v>1.4304933547973633</v>
+        <v>1.4342790842056275</v>
       </c>
       <c r="D12" s="2">
         <v>0.79477423429489136</v>
       </c>
       <c r="E12" s="2">
-        <v>0.70309245586395264</v>
+        <v>0.7058035135269165</v>
       </c>
     </row>
     <row r="13">
@@ -269,13 +269,13 @@
         <v>0.86713510751724243</v>
       </c>
       <c r="C13" s="2">
-        <v>0.76507103443145752</v>
+        <v>0.76869744062423706</v>
       </c>
       <c r="D13" s="2">
         <v>0.78524363040924072</v>
       </c>
       <c r="E13" s="2">
-        <v>0.71155613660812378</v>
+        <v>0.71428197622299194</v>
       </c>
     </row>
     <row r="14">
@@ -286,13 +286,13 @@
         <v>0.1792607456445694</v>
       </c>
       <c r="C14" s="2">
-        <v>0.030305599793791771</v>
+        <v>0.034138482064008713</v>
       </c>
       <c r="D14" s="2">
         <v>0.7518150806427002</v>
       </c>
       <c r="E14" s="2">
-        <v>0.68350249528884888</v>
+        <v>0.68576031923294067</v>
       </c>
     </row>
     <row r="15">
@@ -303,13 +303,13 @@
         <v>0.58201706409454346</v>
       </c>
       <c r="C15" s="2">
-        <v>0.5208810567855835</v>
+        <v>0.52216130495071411</v>
       </c>
       <c r="D15" s="2">
         <v>0.74020195007324219</v>
       </c>
       <c r="E15" s="2">
-        <v>0.67288810014724731</v>
+        <v>0.67516392469406128</v>
       </c>
     </row>
     <row r="16">
@@ -320,13 +320,13 @@
         <v>0.68154394626617432</v>
       </c>
       <c r="C16" s="2">
-        <v>0.61417025327682495</v>
+        <v>0.61537462472915649</v>
       </c>
       <c r="D16" s="2">
         <v>0.70064973831176758</v>
       </c>
       <c r="E16" s="2">
-        <v>0.62817692756652832</v>
+        <v>0.63033151626586914</v>
       </c>
     </row>
     <row r="17">
@@ -337,13 +337,13 @@
         <v>0.59094357490539551</v>
       </c>
       <c r="C17" s="2">
-        <v>0.59964638948440552</v>
+        <v>0.60185563564300537</v>
       </c>
       <c r="D17" s="2">
         <v>0.6134495735168457</v>
       </c>
       <c r="E17" s="2">
-        <v>0.54717177152633667</v>
+        <v>0.5490383505821228</v>
       </c>
     </row>
     <row r="18">
@@ -354,13 +354,13 @@
         <v>0.73513048887252808</v>
       </c>
       <c r="C18" s="2">
-        <v>0.68356418609619141</v>
+        <v>0.6817389726638794</v>
       </c>
       <c r="D18" s="2">
         <v>0.56866580247879028</v>
       </c>
       <c r="E18" s="2">
-        <v>0.50540411472320557</v>
+        <v>0.50706827640533447</v>
       </c>
     </row>
     <row r="19">
@@ -371,13 +371,13 @@
         <v>0.60331767797470093</v>
       </c>
       <c r="C19" s="2">
-        <v>0.55102157592773438</v>
+        <v>0.55340254306793213</v>
       </c>
       <c r="D19" s="2">
         <v>0.63189274072647095</v>
       </c>
       <c r="E19" s="2">
-        <v>0.57795548439025879</v>
+        <v>0.57909542322158813</v>
       </c>
     </row>
     <row r="20">
@@ -388,13 +388,13 @@
         <v>0.55540323257446289</v>
       </c>
       <c r="C20" s="2">
-        <v>0.45843890309333801</v>
+        <v>0.46133542060852051</v>
       </c>
       <c r="D20" s="2">
         <v>0.63897275924682617</v>
       </c>
       <c r="E20" s="2">
-        <v>0.58476591110229492</v>
+        <v>0.58594924211502075</v>
       </c>
     </row>
     <row r="21">
@@ -405,13 +405,13 @@
         <v>0.72629457712173462</v>
       </c>
       <c r="C21" s="2">
-        <v>0.7014467716217041</v>
+        <v>0.70264089107513428</v>
       </c>
       <c r="D21" s="2">
         <v>0.61734813451766968</v>
       </c>
       <c r="E21" s="2">
-        <v>0.55954658985137939</v>
+        <v>0.56083953380584717</v>
       </c>
     </row>
     <row r="22">
@@ -422,13 +422,13 @@
         <v>0.4640810489654541</v>
       </c>
       <c r="C22" s="2">
-        <v>0.38916206359863281</v>
+        <v>0.39096683263778687</v>
       </c>
       <c r="D22" s="2">
         <v>0.55997765064239502</v>
       </c>
       <c r="E22" s="2">
-        <v>0.48955434560775757</v>
+        <v>0.49074578285217285</v>
       </c>
     </row>
     <row r="23">
@@ -439,13 +439,13 @@
         <v>0.7483028769493103</v>
       </c>
       <c r="C23" s="2">
-        <v>0.68326842784881592</v>
+        <v>0.68238258361816406</v>
       </c>
       <c r="D23" s="2">
         <v>0.50966250896453857</v>
       </c>
       <c r="E23" s="2">
-        <v>0.43564960360527039</v>
+        <v>0.43698310852050781</v>
       </c>
     </row>
     <row r="24">
@@ -456,13 +456,13 @@
         <v>0.64573764801025391</v>
       </c>
       <c r="C24" s="2">
-        <v>0.58217453956604004</v>
+        <v>0.58384543657302857</v>
       </c>
       <c r="D24" s="2">
         <v>0.44177782535552979</v>
       </c>
       <c r="E24" s="2">
-        <v>0.36240407824516296</v>
+        <v>0.36357319355010986</v>
       </c>
     </row>
     <row r="25">
@@ -473,13 +473,13 @@
         <v>0.48692196607589722</v>
       </c>
       <c r="C25" s="2">
-        <v>0.38719642162322998</v>
+        <v>0.38938739895820618</v>
       </c>
       <c r="D25" s="2">
-        <v>0.38858711719512939</v>
+        <v>0.3885871171951294</v>
       </c>
       <c r="E25" s="2">
-        <v>0.30719590187072754</v>
+        <v>0.30547896027565003</v>
       </c>
     </row>
     <row r="26">
@@ -490,13 +490,13 @@
         <v>0.074609413743019104</v>
       </c>
       <c r="C26" s="2">
-        <v>-0.030283661559224129</v>
+        <v>-0.02898808941245079</v>
       </c>
       <c r="D26" s="2">
         <v>0.29864171147346497</v>
       </c>
       <c r="E26" s="2">
-        <v>0.20796480774879456</v>
+        <v>0.20477984845638275</v>
       </c>
     </row>
     <row r="27">
@@ -507,13 +507,13 @@
         <v>0.28229430317878723</v>
       </c>
       <c r="C27" s="2">
-        <v>0.19842126965522766</v>
+        <v>0.19787503778934479</v>
       </c>
       <c r="D27" s="2">
         <v>0.27642473578453064</v>
       </c>
       <c r="E27" s="2">
-        <v>0.18357197940349579</v>
+        <v>0.17870165407657623</v>
       </c>
     </row>
     <row r="28">
@@ -524,13 +524,13 @@
         <v>-0.0076445601880550385</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.10818801075220108</v>
+        <v>-0.10728687047958374</v>
       </c>
       <c r="D28" s="2">
         <v>0.1967879980802536</v>
       </c>
       <c r="E28" s="2">
-        <v>0.099563434720039368</v>
+        <v>0.093659251928329468</v>
       </c>
     </row>
     <row r="29">
@@ -541,13 +541,13 @@
         <v>0.0766867995262146</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.038434769958257675</v>
+        <v>-0.061512604355812073</v>
       </c>
       <c r="D29" s="2">
         <v>0.12130893766880035</v>
       </c>
       <c r="E29" s="2">
-        <v>0.023130711168050766</v>
+        <v>0.016370728611946106</v>
       </c>
     </row>
     <row r="30">
@@ -558,13 +558,13 @@
         <v>-0.083214133977890015</v>
       </c>
       <c r="C30" s="2">
-        <v>-0.19163301587104797</v>
+        <v>-0.20365114510059357</v>
       </c>
       <c r="D30" s="2">
         <v>0.046730060130357742</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.050703130662441254</v>
+        <v>-0.059543929994106293</v>
       </c>
     </row>
     <row r="31">
@@ -575,13 +575,13 @@
         <v>0.26412838697433472</v>
       </c>
       <c r="C31" s="2">
-        <v>0.16962659358978271</v>
+        <v>0.1562630832195282</v>
       </c>
       <c r="D31" s="2">
         <v>0.013340989127755165</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.081304408609867096</v>
+        <v>-0.091451987624168396</v>
       </c>
     </row>
     <row r="32">
@@ -592,13 +592,13 @@
         <v>0.031572207808494568</v>
       </c>
       <c r="C32" s="2">
-        <v>-0.072808444499969482</v>
+        <v>-0.082998961210250854</v>
       </c>
       <c r="D32" s="2">
         <v>-0.026081738993525505</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.12092483043670654</v>
+        <v>-0.13234780728816986</v>
       </c>
     </row>
     <row r="33">
@@ -609,13 +609,13 @@
         <v>-0.0335739366710186</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.10571998357772827</v>
+        <v>-0.11175128817558289</v>
       </c>
       <c r="D33" s="2">
         <v>-0.036221664398908615</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.13041642308235168</v>
+        <v>-0.14276348054409027</v>
       </c>
     </row>
     <row r="34">
@@ -626,13 +626,13 @@
         <v>-0.18428795039653778</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.27730816602706909</v>
+        <v>-0.29384452104568481</v>
       </c>
       <c r="D34" s="2">
         <v>-0.074273541569709778</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.16910447180271149</v>
+        <v>-0.18052344024181366</v>
       </c>
     </row>
     <row r="35">
@@ -643,13 +643,13 @@
         <v>-0.22589221596717834</v>
       </c>
       <c r="C35" s="2">
-        <v>-0.30569517612457275</v>
+        <v>-0.31616061925888062</v>
       </c>
       <c r="D35" s="2">
         <v>-0.062322854995727539</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.15368975698947906</v>
+        <v>-0.16540619730949402</v>
       </c>
     </row>
     <row r="36">
@@ -660,13 +660,13 @@
         <v>-0.0725102499127388</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.15816248953342438</v>
+        <v>-0.1701873391866684</v>
       </c>
       <c r="D36" s="2">
         <v>-0.11134803295135498</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.20046058297157288</v>
+        <v>-0.21122159063816071</v>
       </c>
     </row>
     <row r="37">
@@ -677,13 +677,13 @@
         <v>-0.098903901875019073</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.19361235201358795</v>
+        <v>-0.20102791488170624</v>
       </c>
       <c r="D37" s="2">
         <v>-0.099829010665416718</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.18847152590751648</v>
+        <v>-0.19906778633594513</v>
       </c>
     </row>
     <row r="38">
@@ -694,13 +694,13 @@
         <v>-0.26578006148338318</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.38662716746330261</v>
+        <v>-0.40135219693183899</v>
       </c>
       <c r="D38" s="2">
         <v>-0.10038943588733673</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.19513286650180817</v>
+        <v>-0.20712165534496307</v>
       </c>
     </row>
     <row r="39">
@@ -711,13 +711,13 @@
         <v>0.024342043325304985</v>
       </c>
       <c r="C39" s="2">
-        <v>-0.052900653332471848</v>
+        <v>-0.06759604811668396</v>
       </c>
       <c r="D39" s="2">
         <v>-0.072122864425182343</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.16687533259391785</v>
+        <v>-0.17764779925346375</v>
       </c>
     </row>
     <row r="40">
@@ -728,13 +728,13 @@
         <v>-0.17709825932979584</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.25131082534790039</v>
+        <v>-0.25607547163963318</v>
       </c>
       <c r="D40" s="2">
         <v>-0.038859359920024872</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.13520777225494385</v>
+        <v>-0.14620772004127503</v>
       </c>
     </row>
     <row r="41">
@@ -745,13 +745,13 @@
         <v>0.13524341583251953</v>
       </c>
       <c r="C41" s="2">
-        <v>0.035093121230602264</v>
+        <v>0.02638537809252739</v>
       </c>
       <c r="D41" s="2">
         <v>-0.028725698590278625</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.12488584220409393</v>
+        <v>-0.13541014492511749</v>
       </c>
     </row>
     <row r="42">
@@ -762,13 +762,13 @@
         <v>-0.038617771118879318</v>
       </c>
       <c r="C42" s="2">
-        <v>-0.16567204892635345</v>
+        <v>-0.18423612415790558</v>
       </c>
       <c r="D42" s="2">
         <v>0.021272124722599983</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.073701493442058563</v>
+        <v>-0.083850197494029999</v>
       </c>
     </row>
     <row r="43">
@@ -779,13 +779,13 @@
         <v>0.070111222565174103</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.022990372031927109</v>
+        <v>-0.02857988141477108</v>
       </c>
       <c r="D43" s="2">
         <v>0.087257623672485352</v>
       </c>
       <c r="E43" s="2">
-        <v>-0.0044886870309710503</v>
+        <v>-0.013718421570956707</v>
       </c>
     </row>
     <row r="44">
@@ -796,13 +796,13 @@
         <v>0.073479332029819489</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.020687136799097061</v>
+        <v>-0.033199850469827652</v>
       </c>
       <c r="D44" s="2">
         <v>0.12403322011232376</v>
       </c>
       <c r="E44" s="2">
-        <v>0.030876992270350456</v>
+        <v>0.022190986201167107</v>
       </c>
     </row>
     <row r="45">
@@ -813,13 +813,13 @@
         <v>0.018692689016461372</v>
       </c>
       <c r="C45" s="2">
-        <v>-0.065265119075775146</v>
+        <v>-0.07300914078950882</v>
       </c>
       <c r="D45" s="2">
         <v>0.18320125341415405</v>
       </c>
       <c r="E45" s="2">
-        <v>0.089517466723918915</v>
+        <v>0.081055060029029846</v>
       </c>
     </row>
     <row r="46">
@@ -830,13 +830,13 @@
         <v>0.35107651352882385</v>
       </c>
       <c r="C46" s="2">
-        <v>0.26704674959182739</v>
+        <v>0.26301154494285584</v>
       </c>
       <c r="D46" s="2">
         <v>0.20146636664867401</v>
       </c>
       <c r="E46" s="2">
-        <v>0.10696887969970703</v>
+        <v>0.097891107201576233</v>
       </c>
     </row>
     <row r="47">
@@ -847,13 +847,13 @@
         <v>0.32808941602706909</v>
       </c>
       <c r="C47" s="2">
-        <v>0.23628810048103333</v>
+        <v>0.22983379662036896</v>
       </c>
       <c r="D47" s="2">
         <v>0.22309443354606628</v>
       </c>
       <c r="E47" s="2">
-        <v>0.13072319328784943</v>
+        <v>0.12306395173072815</v>
       </c>
     </row>
     <row r="48">
@@ -864,13 +864,13 @@
         <v>0.3553224503993988</v>
       </c>
       <c r="C48" s="2">
-        <v>0.26539045572280884</v>
+        <v>0.25558862090110779</v>
       </c>
       <c r="D48" s="2">
         <v>0.25815296173095703</v>
       </c>
       <c r="E48" s="2">
-        <v>0.16061800718307495</v>
+        <v>0.15198622643947601</v>
       </c>
     </row>
     <row r="49">
@@ -881,13 +881,13 @@
         <v>0.35541403293609619</v>
       </c>
       <c r="C49" s="2">
-        <v>0.27645346522331238</v>
+        <v>0.27370122075080872</v>
       </c>
       <c r="D49" s="2">
-        <v>0.28123718500137329</v>
+        <v>0.28363993763923645</v>
       </c>
       <c r="E49" s="2">
-        <v>0.18328115344047546</v>
+        <v>0.17465724050998688</v>
       </c>
     </row>
     <row r="50">
@@ -898,13 +898,13 @@
         <v>0.29962939023971558</v>
       </c>
       <c r="C50" s="2">
-        <v>0.19215580821037292</v>
+        <v>0.17790979146957398</v>
       </c>
       <c r="D50" s="2">
-        <v>0.31874352693557739</v>
+        <v>0.32331675291061401</v>
       </c>
       <c r="E50" s="2">
-        <v>0.21878775954246521</v>
+        <v>0.2133169025182724</v>
       </c>
     </row>
     <row r="51">
@@ -915,13 +915,13 @@
         <v>0.15603484213352203</v>
       </c>
       <c r="C51" s="2">
-        <v>0.048116806894540787</v>
+        <v>0.042319450527429581</v>
       </c>
       <c r="D51" s="2">
-        <v>0.31335470080375671</v>
+        <v>0.30520358681678772</v>
       </c>
       <c r="E51" s="2">
-        <v>0.21074458956718445</v>
+        <v>0.19150848686695099</v>
       </c>
     </row>
     <row r="52">
@@ -932,14 +932,83 @@
         <v>0.38563808798789978</v>
       </c>
       <c r="C52" s="2">
-        <v>0.24606293439865112</v>
+        <v>0.23172061145305634</v>
       </c>
       <c r="D52" s="2">
-        <v>0.31040775775909424</v>
+        <v>0.30234286189079285</v>
       </c>
       <c r="E52" s="2">
-        <v>0.20563589036464691</v>
-      </c>
+        <v>0.18671780824661255</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.30286189913749695</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.17083932459354401</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.29477435350418091</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.17687912285327911</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.37578409910202026</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.27492779493331909</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.2846677303314209</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.16074211895465851</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.1880580335855484</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.066735707223415375</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.28167539834976196</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.15730857849121094</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
   </sheetData>
 </worksheet>

--- a/ECB_skewness_lt.xlsx
+++ b/ECB_skewness_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -133,13 +133,13 @@
         <v>0.88727086782455444</v>
       </c>
       <c r="C5" s="2">
-        <v>0.77966213226318359</v>
+        <v>0.77241760492324829</v>
       </c>
       <c r="D5" s="2">
         <v>0.75177186727523804</v>
       </c>
       <c r="E5" s="2">
-        <v>0.63628363609313965</v>
+        <v>0.62814927101135254</v>
       </c>
     </row>
     <row r="6">
@@ -150,13 +150,13 @@
         <v>0.48910319805145264</v>
       </c>
       <c r="C6" s="2">
-        <v>0.36411759257316589</v>
+        <v>0.35116145014762878</v>
       </c>
       <c r="D6" s="2">
         <v>0.7444491982460022</v>
       </c>
       <c r="E6" s="2">
-        <v>0.63836473226547241</v>
+        <v>0.63088101148605347</v>
       </c>
     </row>
     <row r="7">
@@ -167,13 +167,13 @@
         <v>0.66977864503860474</v>
       </c>
       <c r="C7" s="2">
-        <v>0.57365500926971436</v>
+        <v>0.56391721963882446</v>
       </c>
       <c r="D7" s="2">
         <v>0.76829540729522705</v>
       </c>
       <c r="E7" s="2">
-        <v>0.67071652412414551</v>
+        <v>0.66285288333892822</v>
       </c>
     </row>
     <row r="8">
@@ -184,13 +184,13 @@
         <v>0.67671900987625122</v>
       </c>
       <c r="C8" s="2">
-        <v>0.52554982900619507</v>
+        <v>0.51864200830459595</v>
       </c>
       <c r="D8" s="2">
         <v>0.8611454963684082</v>
       </c>
       <c r="E8" s="2">
-        <v>0.76616185903549194</v>
+        <v>0.75899547338485718</v>
       </c>
     </row>
     <row r="9">
@@ -201,13 +201,13 @@
         <v>1.0359877347946167</v>
       </c>
       <c r="C9" s="2">
-        <v>0.93843358755111694</v>
+        <v>0.93460792303085327</v>
       </c>
       <c r="D9" s="2">
         <v>0.86181104183197021</v>
       </c>
       <c r="E9" s="2">
-        <v>0.76644355058670044</v>
+        <v>0.75947266817092896</v>
       </c>
     </row>
     <row r="10">
@@ -218,13 +218,13 @@
         <v>0.70783579349517822</v>
       </c>
       <c r="C10" s="2">
-        <v>0.64877015352249146</v>
+        <v>0.64454001188278198</v>
       </c>
       <c r="D10" s="2">
         <v>0.78314322233200073</v>
       </c>
       <c r="E10" s="2">
-        <v>0.68360763788223267</v>
+        <v>0.67708730697631836</v>
       </c>
     </row>
     <row r="11">
@@ -235,13 +235,13 @@
         <v>0.91137278079986572</v>
       </c>
       <c r="C11" s="2">
-        <v>0.86482733488082886</v>
+        <v>0.85468411445617676</v>
       </c>
       <c r="D11" s="2">
         <v>0.79346698522567749</v>
       </c>
       <c r="E11" s="2">
-        <v>0.7011680006980896</v>
+        <v>0.69506186246871948</v>
       </c>
     </row>
     <row r="12">
@@ -252,13 +252,13 @@
         <v>1.5110960006713867</v>
       </c>
       <c r="C12" s="2">
-        <v>1.4342790842056275</v>
+        <v>1.4319933652877808</v>
       </c>
       <c r="D12" s="2">
         <v>0.79477423429489136</v>
       </c>
       <c r="E12" s="2">
-        <v>0.7058035135269165</v>
+        <v>0.69977849721908569</v>
       </c>
     </row>
     <row r="13">
@@ -269,13 +269,13 @@
         <v>0.86713510751724243</v>
       </c>
       <c r="C13" s="2">
-        <v>0.76869744062423706</v>
+        <v>0.7632904052734375</v>
       </c>
       <c r="D13" s="2">
         <v>0.78524363040924072</v>
       </c>
       <c r="E13" s="2">
-        <v>0.71428197622299194</v>
+        <v>0.70903778076171875</v>
       </c>
     </row>
     <row r="14">
@@ -286,13 +286,13 @@
         <v>0.1792607456445694</v>
       </c>
       <c r="C14" s="2">
-        <v>0.034138482064008713</v>
+        <v>0.030949430540204048</v>
       </c>
       <c r="D14" s="2">
         <v>0.7518150806427002</v>
       </c>
       <c r="E14" s="2">
-        <v>0.68576031923294067</v>
+        <v>0.68135523796081543</v>
       </c>
     </row>
     <row r="15">
@@ -303,13 +303,13 @@
         <v>0.58201706409454346</v>
       </c>
       <c r="C15" s="2">
-        <v>0.52216130495071411</v>
+        <v>0.5129324197769165</v>
       </c>
       <c r="D15" s="2">
         <v>0.74020195007324219</v>
       </c>
       <c r="E15" s="2">
-        <v>0.67516392469406128</v>
+        <v>0.67107510566711426</v>
       </c>
     </row>
     <row r="16">
@@ -320,13 +320,13 @@
         <v>0.68154394626617432</v>
       </c>
       <c r="C16" s="2">
-        <v>0.61537462472915649</v>
+        <v>0.60636657476425171</v>
       </c>
       <c r="D16" s="2">
         <v>0.70064973831176758</v>
       </c>
       <c r="E16" s="2">
-        <v>0.63033151626586914</v>
+        <v>0.6263502836227417</v>
       </c>
     </row>
     <row r="17">
@@ -337,13 +337,13 @@
         <v>0.59094357490539551</v>
       </c>
       <c r="C17" s="2">
-        <v>0.60185563564300537</v>
+        <v>0.60197561979293823</v>
       </c>
       <c r="D17" s="2">
         <v>0.6134495735168457</v>
       </c>
       <c r="E17" s="2">
-        <v>0.5490383505821228</v>
+        <v>0.54420250654220581</v>
       </c>
     </row>
     <row r="18">
@@ -354,13 +354,13 @@
         <v>0.73513048887252808</v>
       </c>
       <c r="C18" s="2">
-        <v>0.6817389726638794</v>
+        <v>0.68546545505523682</v>
       </c>
       <c r="D18" s="2">
         <v>0.56866580247879028</v>
       </c>
       <c r="E18" s="2">
-        <v>0.50706827640533447</v>
+        <v>0.50154620409011841</v>
       </c>
     </row>
     <row r="19">
@@ -371,13 +371,13 @@
         <v>0.60331767797470093</v>
       </c>
       <c r="C19" s="2">
-        <v>0.55340254306793213</v>
+        <v>0.55201870203018188</v>
       </c>
       <c r="D19" s="2">
         <v>0.63189274072647095</v>
       </c>
       <c r="E19" s="2">
-        <v>0.57909542322158813</v>
+        <v>0.5723302960395813</v>
       </c>
     </row>
     <row r="20">
@@ -388,13 +388,13 @@
         <v>0.55540323257446289</v>
       </c>
       <c r="C20" s="2">
-        <v>0.46133542060852051</v>
+        <v>0.45216038823127747</v>
       </c>
       <c r="D20" s="2">
         <v>0.63897275924682617</v>
       </c>
       <c r="E20" s="2">
-        <v>0.58594924211502075</v>
+        <v>0.57996618747711182</v>
       </c>
     </row>
     <row r="21">
@@ -405,13 +405,13 @@
         <v>0.72629457712173462</v>
       </c>
       <c r="C21" s="2">
-        <v>0.70264089107513428</v>
+        <v>0.69266366958618164</v>
       </c>
       <c r="D21" s="2">
         <v>0.61734813451766968</v>
       </c>
       <c r="E21" s="2">
-        <v>0.56083953380584717</v>
+        <v>0.55501270294189453</v>
       </c>
     </row>
     <row r="22">
@@ -422,13 +422,13 @@
         <v>0.4640810489654541</v>
       </c>
       <c r="C22" s="2">
-        <v>0.39096683263778687</v>
+        <v>0.37938377261161804</v>
       </c>
       <c r="D22" s="2">
         <v>0.55997765064239502</v>
       </c>
       <c r="E22" s="2">
-        <v>0.49074578285217285</v>
+        <v>0.48392975330352783</v>
       </c>
     </row>
     <row r="23">
@@ -439,13 +439,13 @@
         <v>0.7483028769493103</v>
       </c>
       <c r="C23" s="2">
-        <v>0.68238258361816406</v>
+        <v>0.66800594329833984</v>
       </c>
       <c r="D23" s="2">
         <v>0.50966250896453857</v>
       </c>
       <c r="E23" s="2">
-        <v>0.43698310852050781</v>
+        <v>0.42876240611076355</v>
       </c>
     </row>
     <row r="24">
@@ -456,13 +456,13 @@
         <v>0.64573764801025391</v>
       </c>
       <c r="C24" s="2">
-        <v>0.58384543657302857</v>
+        <v>0.58165568113327026</v>
       </c>
       <c r="D24" s="2">
         <v>0.44177782535552979</v>
       </c>
       <c r="E24" s="2">
-        <v>0.36357319355010986</v>
+        <v>0.35514086484909058</v>
       </c>
     </row>
     <row r="25">
@@ -473,13 +473,13 @@
         <v>0.48692196607589722</v>
       </c>
       <c r="C25" s="2">
-        <v>0.38938739895820618</v>
+        <v>0.38178521394729614</v>
       </c>
       <c r="D25" s="2">
-        <v>0.3885871171951294</v>
+        <v>0.38858711719512939</v>
       </c>
       <c r="E25" s="2">
-        <v>0.30547896027565003</v>
+        <v>0.29685455560684204</v>
       </c>
     </row>
     <row r="26">
@@ -490,13 +490,13 @@
         <v>0.074609413743019104</v>
       </c>
       <c r="C26" s="2">
-        <v>-0.02898808941245079</v>
+        <v>-0.037770979106426239</v>
       </c>
       <c r="D26" s="2">
         <v>0.29864171147346497</v>
       </c>
       <c r="E26" s="2">
-        <v>0.20477984845638275</v>
+        <v>0.19572587311267853</v>
       </c>
     </row>
     <row r="27">
@@ -507,13 +507,13 @@
         <v>0.28229430317878723</v>
       </c>
       <c r="C27" s="2">
-        <v>0.19787503778934479</v>
+        <v>0.18895919620990753</v>
       </c>
       <c r="D27" s="2">
         <v>0.27642473578453064</v>
       </c>
       <c r="E27" s="2">
-        <v>0.17870165407657623</v>
+        <v>0.16923424601554871</v>
       </c>
     </row>
     <row r="28">
@@ -524,13 +524,13 @@
         <v>-0.0076445601880550385</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.10728687047958374</v>
+        <v>-0.11057507991790771</v>
       </c>
       <c r="D28" s="2">
         <v>0.1967879980802536</v>
       </c>
       <c r="E28" s="2">
-        <v>0.093659251928329468</v>
+        <v>0.084503613412380219</v>
       </c>
     </row>
     <row r="29">
@@ -541,13 +541,13 @@
         <v>0.0766867995262146</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.061512604355812073</v>
+        <v>-0.072416514158248901</v>
       </c>
       <c r="D29" s="2">
         <v>0.12130893766880035</v>
       </c>
       <c r="E29" s="2">
-        <v>0.016370728611946106</v>
+        <v>0.0065942686051130295</v>
       </c>
     </row>
     <row r="30">
@@ -558,13 +558,13 @@
         <v>-0.083214133977890015</v>
       </c>
       <c r="C30" s="2">
-        <v>-0.20365114510059357</v>
+        <v>-0.21749438345432281</v>
       </c>
       <c r="D30" s="2">
         <v>0.046730060130357742</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.059543929994106293</v>
+        <v>-0.070078320801258087</v>
       </c>
     </row>
     <row r="31">
@@ -575,13 +575,13 @@
         <v>0.26412838697433472</v>
       </c>
       <c r="C31" s="2">
-        <v>0.1562630832195282</v>
+        <v>0.14095918834209442</v>
       </c>
       <c r="D31" s="2">
         <v>0.013340989127755165</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.091451987624168396</v>
+        <v>-0.10176176577806473</v>
       </c>
     </row>
     <row r="32">
@@ -592,13 +592,13 @@
         <v>0.031572207808494568</v>
       </c>
       <c r="C32" s="2">
-        <v>-0.082998961210250854</v>
+        <v>-0.09456980973482132</v>
       </c>
       <c r="D32" s="2">
         <v>-0.026081738993525505</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.13234780728816986</v>
+        <v>-0.14302507042884827</v>
       </c>
     </row>
     <row r="33">
@@ -609,13 +609,13 @@
         <v>-0.0335739366710186</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.11175128817558289</v>
+        <v>-0.11952841281890869</v>
       </c>
       <c r="D33" s="2">
         <v>-0.036221664398908615</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.14276348054409027</v>
+        <v>-0.15402337908744812</v>
       </c>
     </row>
     <row r="34">
@@ -626,13 +626,13 @@
         <v>-0.18428795039653778</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.29384452104568481</v>
+        <v>-0.30826810002326965</v>
       </c>
       <c r="D34" s="2">
         <v>-0.074273541569709778</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.18052344024181366</v>
+        <v>-0.19229646027088165</v>
       </c>
     </row>
     <row r="35">
@@ -643,13 +643,13 @@
         <v>-0.22589221596717834</v>
       </c>
       <c r="C35" s="2">
-        <v>-0.31616061925888062</v>
+        <v>-0.32292196154594421</v>
       </c>
       <c r="D35" s="2">
         <v>-0.062322854995727539</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.16540619730949402</v>
+        <v>-0.17741735279560089</v>
       </c>
     </row>
     <row r="36">
@@ -660,13 +660,13 @@
         <v>-0.0725102499127388</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.1701873391866684</v>
+        <v>-0.18241055309772491</v>
       </c>
       <c r="D36" s="2">
         <v>-0.11134803295135498</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.21122159063816071</v>
+        <v>-0.2225511372089386</v>
       </c>
     </row>
     <row r="37">
@@ -677,13 +677,13 @@
         <v>-0.098903901875019073</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.20102791488170624</v>
+        <v>-0.20955987274646759</v>
       </c>
       <c r="D37" s="2">
         <v>-0.099829010665416718</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.19906778633594513</v>
+        <v>-0.21012218296527863</v>
       </c>
     </row>
     <row r="38">
@@ -694,13 +694,13 @@
         <v>-0.26578006148338318</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.40135219693183899</v>
+        <v>-0.41687420010566711</v>
       </c>
       <c r="D38" s="2">
         <v>-0.10038943588733673</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.20712165534496307</v>
+        <v>-0.218982994556427</v>
       </c>
     </row>
     <row r="39">
@@ -711,13 +711,13 @@
         <v>0.024342043325304985</v>
       </c>
       <c r="C39" s="2">
-        <v>-0.06759604811668396</v>
+        <v>-0.083582490682601929</v>
       </c>
       <c r="D39" s="2">
         <v>-0.072122864425182343</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.17764779925346375</v>
+        <v>-0.18898722529411316</v>
       </c>
     </row>
     <row r="40">
@@ -728,13 +728,13 @@
         <v>-0.17709825932979584</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.25607547163963318</v>
+        <v>-0.26524484157562256</v>
       </c>
       <c r="D40" s="2">
         <v>-0.038859359920024872</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.14620772004127503</v>
+        <v>-0.15824517607688904</v>
       </c>
     </row>
     <row r="41">
@@ -745,13 +745,13 @@
         <v>0.13524341583251953</v>
       </c>
       <c r="C41" s="2">
-        <v>0.02638537809252739</v>
+        <v>0.017290746793150902</v>
       </c>
       <c r="D41" s="2">
         <v>-0.028725698590278625</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.13541014492511749</v>
+        <v>-0.14717511832714081</v>
       </c>
     </row>
     <row r="42">
@@ -762,13 +762,13 @@
         <v>-0.038617771118879318</v>
       </c>
       <c r="C42" s="2">
-        <v>-0.18423612415790558</v>
+        <v>-0.19927568733692169</v>
       </c>
       <c r="D42" s="2">
         <v>0.021272124722599983</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.083850197494029999</v>
+        <v>-0.095496423542499542</v>
       </c>
     </row>
     <row r="43">
@@ -779,13 +779,13 @@
         <v>0.070111222565174103</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.02857988141477108</v>
+        <v>-0.03830612450838089</v>
       </c>
       <c r="D43" s="2">
         <v>0.087257623672485352</v>
       </c>
       <c r="E43" s="2">
-        <v>-0.013718421570956707</v>
+        <v>-0.024876292794942856</v>
       </c>
     </row>
     <row r="44">
@@ -796,13 +796,13 @@
         <v>0.073479332029819489</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.033199850469827652</v>
+        <v>-0.046243507415056229</v>
       </c>
       <c r="D44" s="2">
         <v>0.12403322011232376</v>
       </c>
       <c r="E44" s="2">
-        <v>0.022190986201167107</v>
+        <v>0.011214782483875751</v>
       </c>
     </row>
     <row r="45">
@@ -813,13 +813,13 @@
         <v>0.018692689016461372</v>
       </c>
       <c r="C45" s="2">
-        <v>-0.07300914078950882</v>
+        <v>-0.082780137658119202</v>
       </c>
       <c r="D45" s="2">
         <v>0.18320125341415405</v>
       </c>
       <c r="E45" s="2">
-        <v>0.081055060029029846</v>
+        <v>0.069724157452583313</v>
       </c>
     </row>
     <row r="46">
@@ -830,13 +830,13 @@
         <v>0.35107651352882385</v>
       </c>
       <c r="C46" s="2">
-        <v>0.26301154494285584</v>
+        <v>0.25554844737052917</v>
       </c>
       <c r="D46" s="2">
         <v>0.20146636664867401</v>
       </c>
       <c r="E46" s="2">
-        <v>0.097891107201576233</v>
+        <v>0.085541516542434692</v>
       </c>
     </row>
     <row r="47">
@@ -847,13 +847,13 @@
         <v>0.32808941602706909</v>
       </c>
       <c r="C47" s="2">
-        <v>0.22983379662036896</v>
+        <v>0.21870696544647217</v>
       </c>
       <c r="D47" s="2">
         <v>0.22309443354606628</v>
       </c>
       <c r="E47" s="2">
-        <v>0.12306395173072815</v>
+        <v>0.11117653548717499</v>
       </c>
     </row>
     <row r="48">
@@ -864,13 +864,13 @@
         <v>0.3553224503993988</v>
       </c>
       <c r="C48" s="2">
-        <v>0.25558862090110779</v>
+        <v>0.24123717844486237</v>
       </c>
       <c r="D48" s="2">
         <v>0.25815296173095703</v>
       </c>
       <c r="E48" s="2">
-        <v>0.15198622643947601</v>
+        <v>0.13925060629844666</v>
       </c>
     </row>
     <row r="49">
@@ -881,13 +881,13 @@
         <v>0.35541403293609619</v>
       </c>
       <c r="C49" s="2">
-        <v>0.27370122075080872</v>
+        <v>0.26133951544761658</v>
       </c>
       <c r="D49" s="2">
         <v>0.28363993763923645</v>
       </c>
       <c r="E49" s="2">
-        <v>0.17465724050998688</v>
+        <v>0.16183334589004517</v>
       </c>
     </row>
     <row r="50">
@@ -898,13 +898,13 @@
         <v>0.29962939023971558</v>
       </c>
       <c r="C50" s="2">
-        <v>0.17790979146957398</v>
+        <v>0.15964698791503906</v>
       </c>
       <c r="D50" s="2">
         <v>0.32331675291061401</v>
       </c>
       <c r="E50" s="2">
-        <v>0.2133169025182724</v>
+        <v>0.1998257040977478</v>
       </c>
     </row>
     <row r="51">
@@ -915,13 +915,13 @@
         <v>0.15603484213352203</v>
       </c>
       <c r="C51" s="2">
-        <v>0.042319450527429581</v>
+        <v>0.031439471989870071</v>
       </c>
       <c r="D51" s="2">
         <v>0.30520358681678772</v>
       </c>
       <c r="E51" s="2">
-        <v>0.19150848686695099</v>
+        <v>0.17734892666339874</v>
       </c>
     </row>
     <row r="52">
@@ -932,13 +932,13 @@
         <v>0.38563808798789978</v>
       </c>
       <c r="C52" s="2">
-        <v>0.23172061145305634</v>
+        <v>0.21436057984828949</v>
       </c>
       <c r="D52" s="2">
-        <v>0.30234286189079285</v>
+        <v>0.31449529528617859</v>
       </c>
       <c r="E52" s="2">
-        <v>0.18671780824661255</v>
+        <v>0.18676285445690155</v>
       </c>
     </row>
     <row r="53">
@@ -949,13 +949,13 @@
         <v>0.30286189913749695</v>
       </c>
       <c r="C53" s="2">
-        <v>0.17083932459354401</v>
+        <v>0.15700110793113708</v>
       </c>
       <c r="D53" s="2">
-        <v>0.29477435350418091</v>
+        <v>0.34667885303497314</v>
       </c>
       <c r="E53" s="2">
-        <v>0.17687912285327911</v>
+        <v>0.21741728484630585</v>
       </c>
     </row>
     <row r="54">
@@ -966,13 +966,13 @@
         <v>0.37578409910202026</v>
       </c>
       <c r="C54" s="2">
-        <v>0.27492779493331909</v>
+        <v>0.25915110111236572</v>
       </c>
       <c r="D54" s="2">
-        <v>0.2846677303314209</v>
+        <v>0.36161810159683228</v>
       </c>
       <c r="E54" s="2">
-        <v>0.16074211895465851</v>
+        <v>0.2290860116481781</v>
       </c>
     </row>
     <row r="55">
@@ -983,32 +983,167 @@
         <v>0.1880580335855484</v>
       </c>
       <c r="C55" s="2">
-        <v>0.066735707223415375</v>
+        <v>0.053257469087839127</v>
       </c>
       <c r="D55" s="2">
-        <v>0.28167539834976196</v>
+        <v>0.37769380211830139</v>
       </c>
       <c r="E55" s="2">
-        <v>0.15730857849121094</v>
+        <v>0.24751675128936768</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
         <v>45474</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="B56" s="2">
+        <v>0.4117148220539093</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.30343231558799744</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.44006979465484619</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.31197571754455566</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
         <v>45505</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="B57" s="2">
+        <v>0.64497452974319458</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.51712703704833984</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.45727953314781189</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.3360971212387085</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.48986724019050598</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.36635807156562805</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.48500567674636841</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.36640718579292297</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.44431072473526001</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.32552364468574524</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.48190978169441223</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.36044332385063171</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.71741873025894165</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.61157023906707764</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.4954032301902771</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.37740015983581543</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.54052573442459106</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.43145304918289185</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.50586426258087158</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.38664612174034119</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.55239719152450562</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.42979174852371216</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.48599138855934143</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.36800599098205566</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.34792107343673706</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.20547620952129364</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.48534542322158813</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.36828064918518066</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.30949902534484863</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.20586903393268585</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.49355235695838928</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.37683206796646118</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/ECB_skewness_lt.xlsx
+++ b/ECB_skewness_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1145,6 +1145,15 @@
         <v>0.37683206796646118</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>